--- a/Result/Orbit/Manufacturing/SGP.xlsx
+++ b/Result/Orbit/Manufacturing/SGP.xlsx
@@ -463,7 +463,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>26.52611559513869</v>
+        <v>26.65323300510556</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>25.7581049024776</v>
+        <v>25.07152523554635</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>22.29291490588914</v>
+        <v>24.71207060252204</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>21.46434389615849</v>
+        <v>21.61823275015571</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>21.40238291509307</v>
+        <v>20.73192562939148</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>20.11536164922619</v>
+        <v>20.48328490441506</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>22.61381615789615</v>
+        <v>19.60526799576801</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>24.09005587328071</v>
+        <v>22.03057823919419</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>26.07842073053191</v>
+        <v>24.05498778489824</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>25.30122250585156</v>
+        <v>26.42601182692386</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>24.40422570975837</v>
+        <v>25.41301307017758</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>25.45987665323874</v>
+        <v>24.62353629933123</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>24.34968358529537</v>
+        <v>25.31396404894241</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>24.47185597678178</v>
+        <v>24.40272007532572</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>23.62472169260649</v>
+        <v>24.65152909984552</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>23.98506226333385</v>
+        <v>23.54493709828907</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>23.16721806017505</v>
+        <v>24.05846777216672</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>22.15150365521268</v>
+        <v>23.16058381790568</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>22.68745264851204</v>
+        <v>21.7496835129239</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>22.85068631305447</v>
+        <v>22.51910880758422</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>25.8614860377559</v>
+        <v>22.87327053648163</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>23.39469784741456</v>
+        <v>25.87021428406392</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>24.73764032297293</v>
+        <v>23.7028866633882</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>24.76541269319689</v>
+        <v>24.59480747242574</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>27.11936759706429</v>
+        <v>24.88069756975523</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>27.07676179820706</v>
+        <v>27.23756485420379</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>26.57800598580277</v>
+        <v>27.35075057518691</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -733,7 +733,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>23.82265190452721</v>
+        <v>26.76953553769138</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -743,7 +743,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>20.58566497384844</v>
+        <v>23.9721681365639</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -753,7 +753,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>20.27337642907351</v>
+        <v>20.37471444194557</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -763,7 +763,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>20.77383302531255</v>
+        <v>19.62147084231234</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -773,7 +773,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>19.58255150797782</v>
+        <v>20.39303149996474</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -783,7 +783,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>19.11682198006619</v>
+        <v>19.42146554789669</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -793,7 +793,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>17.63840961487545</v>
+        <v>19.07749969400044</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -803,7 +803,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>17.99976889212852</v>
+        <v>17.11051476358799</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -813,7 +813,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>18.08932985487341</v>
+        <v>17.65043909817955</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -823,7 +823,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>17.50825828041602</v>
+        <v>17.93542303782085</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -874,50 +874,70 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>17.5082583095623</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>17.30612631725244</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15.01981497363749</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.74764478700112</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>17.5082583095623</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>17.02182408993172</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13.69416665981496</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.38075065083727</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>17.5082583095623</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>16.81573988070247</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.30569424844582</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.32001206329997</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>17.5082583095623</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>16.39431461415052</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.0440335626086</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.81776330050454</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>17.5082583095623</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>16.58085262158335</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.11377423287243</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.09709957821701</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -965,7 +985,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>26.52611559513869</v>
+        <v>26.42738413026446</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -975,7 +995,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>25.7581049024776</v>
+        <v>24.92266275127835</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -985,7 +1005,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>22.29291490588914</v>
+        <v>25.24797864044985</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -995,7 +1015,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>21.46434389615849</v>
+        <v>21.72807457231399</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1005,7 +1025,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>21.40238291509307</v>
+        <v>20.94027644908426</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -1015,7 +1035,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>20.11536164922619</v>
+        <v>20.7714411061115</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1025,7 +1045,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>22.61381615789615</v>
+        <v>20.15466818989211</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -1035,7 +1055,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>24.09005587328071</v>
+        <v>22.37188529291722</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1045,7 +1065,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>26.07842073053191</v>
+        <v>23.99019454688494</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1055,7 +1075,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>25.30122250585156</v>
+        <v>26.28826585543388</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1065,7 +1085,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>24.40422570975837</v>
+        <v>25.54419796827419</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1075,7 +1095,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>25.45987665323874</v>
+        <v>24.45652577557557</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1085,7 +1105,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>24.34968358529537</v>
+        <v>24.93549750582976</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1095,7 +1115,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>24.47185597678178</v>
+        <v>24.02066990350691</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1105,7 +1125,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>23.62472169260649</v>
+        <v>24.31682804220969</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1115,7 +1135,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>23.98506226333385</v>
+        <v>23.41311427184215</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1125,7 +1145,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>23.16721806017505</v>
+        <v>23.62682108307153</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1135,7 +1155,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>22.15150365521268</v>
+        <v>22.75638605163449</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1145,7 +1165,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>22.68745264851204</v>
+        <v>22.1554968443123</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1155,7 +1175,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>22.85068631305447</v>
+        <v>22.17769411923885</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1165,7 +1185,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>25.8614860377559</v>
+        <v>22.79103840588485</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1175,7 +1195,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>23.39469784741456</v>
+        <v>25.85662222455281</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1185,7 +1205,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>24.73764032297293</v>
+        <v>23.62987095625891</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1195,7 +1215,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>24.76541269319689</v>
+        <v>24.69711851225856</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1205,7 +1225,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>27.11936759706429</v>
+        <v>24.60613352926978</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1215,7 +1235,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>27.07676179820706</v>
+        <v>27.21185782500584</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1225,7 +1245,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>26.57800598580277</v>
+        <v>27.02149612595974</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1235,7 +1255,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>23.82265190452721</v>
+        <v>26.71106441348897</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1245,7 +1265,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>20.58566497384844</v>
+        <v>23.86273338714619</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1255,7 +1275,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>20.27337642907351</v>
+        <v>20.04808259894534</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1265,7 +1285,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>20.77383302531255</v>
+        <v>19.62113944506363</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1275,7 +1295,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>19.58255150797782</v>
+        <v>20.50506510063975</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -1285,7 +1305,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>19.11682198006619</v>
+        <v>19.52918477781049</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -1295,7 +1315,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>17.63840961487545</v>
+        <v>19.22211913045469</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -1305,7 +1325,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>17.99976889212852</v>
+        <v>17.34837374077655</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -1315,7 +1335,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>18.08932985487341</v>
+        <v>17.30096316091056</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -1325,7 +1345,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>17.50825828041602</v>
+        <v>17.78041883455239</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -1335,7 +1355,7 @@
         <v>2017</v>
       </c>
       <c r="B39" t="n">
-        <v>18.58334720710878</v>
+        <v>17.60333389678397</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
@@ -1345,7 +1365,7 @@
         <v>2018</v>
       </c>
       <c r="B40" t="n">
-        <v>20.73630601356827</v>
+        <v>18.64438715255273</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -1355,7 +1375,7 @@
         <v>2019</v>
       </c>
       <c r="B41" t="n">
-        <v>19.43284515107672</v>
+        <v>20.80266492186401</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
@@ -1365,7 +1385,7 @@
         <v>2020</v>
       </c>
       <c r="B42" t="n">
-        <v>19.95498366095388</v>
+        <v>19.76474908851143</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
@@ -1375,7 +1395,7 @@
         <v>2021</v>
       </c>
       <c r="B43" t="n">
-        <v>21.07415385601889</v>
+        <v>19.97698751501968</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
@@ -1426,50 +1446,70 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>21.0741537834722</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>21.08569293813439</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18.61991965112781</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.09933303520715</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>21.0741537834722</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>21.09794744319369</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17.51403965668359</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.49349257316641</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>21.0741537834722</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>21.28239001425933</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16.84344881946094</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.66608066543524</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>21.0741537834722</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>21.47747421568807</v>
+      </c>
+      <c r="C5" t="n">
+        <v>16.66387547798309</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.24773837479463</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>21.0741537834722</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>21.19193621870123</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14.54970439867931</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29.73622805753837</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
